--- a/data/trans_camb/P6903-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6903-Provincia-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">

--- a/data/trans_camb/P6903-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6903-Provincia-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -637,12 +637,12 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-21,26</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -652,12 +652,12 @@
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,06</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,04</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -667,12 +667,12 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,58</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-17,42</t>
         </is>
       </c>
     </row>
@@ -690,42 +690,42 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
+          <t>-20,7; 23,37</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>-42,85; 3,33</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-12,68; 36,09</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>-36,59; 16,32</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,19; 22,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-33,68; 1,53</t>
         </is>
       </c>
     </row>
@@ -743,42 +743,42 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
+          <t>6,15%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>-53,04%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>25,91%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>-31,01%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-44,01%</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
+          <t>-40,18; 92,07</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>-87,39; 24,71</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E7" s="2" t="inlineStr">
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-26,38; 155,49</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>-76,06; 71,69</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,49; 73,66</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,85; 7,5</t>
         </is>
       </c>
     </row>
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,84</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,21</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,77</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,25</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>30,65</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,09</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>17,81</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,39</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,88; 18,97</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,09; 25,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,72; 31,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,51; 14,78</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,33; 53,22</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,99; 36,82</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,66; 11,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,94; 30,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,62; 26,77</t>
         </is>
       </c>
     </row>
@@ -954,47 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>36,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>32,18%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-20,98%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>102,88%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>50,65%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,15%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>58,98%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>41,02%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,72; 92,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,26; 115,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,62; 145,87</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,62; 91,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,1; 286,56</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,65; 220,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,0; 47,5</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,82; 133,96</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,75; 117,61</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-19,81</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,51</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-23,81</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>14,21</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,81</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,67</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,58</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,54</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,88</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-40,05; 3,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,41; 12,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,61; -5,19</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,56; 41,65</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,54; 24,62</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,22; 28,48</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,71; 11,15</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,63; 12,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,2; 3,67</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-57,52%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,34%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-69,13%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>104,38%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,67%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,24%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-29,53%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-88,79; 37,77</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-80,77; 50,0</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-89,15; -18,61</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-54,87; 1075,44</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,23; 653,3</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,52; 76,52</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-71,61; 89,36</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-62,64; 23,19</t>
         </is>
       </c>
     </row>
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>29,76</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>31,29</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>38,62</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>35,23</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>39,2</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,15</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>31,12</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>34,01</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,84; 23,23</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,02; 51,68</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,69; 54,69</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,67; 55,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>11,27; 56,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,34; 58,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,35; 31,98</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,06; 46,29</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,97; 49,1</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>43,09%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>150,23%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>157,94%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>286,04%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>260,92%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>290,35%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>111,7%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>172,5%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>188,5%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,98; 210,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>25,22; 416,08</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,57; 436,04</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>34,27; 1451,59</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>22,51; 1292,64</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,51; 1343,19</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>26,64; 293,43</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>62,65; 432,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>59,46; 418,29</t>
         </is>
       </c>
     </row>
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-25,57</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,95</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,42</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>5,25</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>23,42</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,96</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-12,7</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>21,51</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-11,2</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,81; -2,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,1; 56,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,47; 8,97</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-46,81; 46,37</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,35; 71,17</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,68; 28,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,05; 9,66</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,34; 50,2</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,48; 9,76</t>
         </is>
       </c>
     </row>
@@ -1602,47 +1602,47 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-80,74%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>66,16%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-51,84%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,14%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>80,87%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-6,77%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,91%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>69,32%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,07%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 142,19</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,91; 324,85</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-89,57; 66,38</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,07; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,77; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-77,96; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-83,32; 66,55</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,16; 236,29</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-72,07; 62,87</t>
         </is>
       </c>
     </row>
@@ -1712,47 +1712,47 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-24,62</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,46</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-16,94</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>19,01</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>40,61</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>20,12</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,56</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,87</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,07</t>
         </is>
       </c>
     </row>
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,09; -3,39</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,29; 27,22</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-37,65; 4,81</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,68; 47,0</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 80,4</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-4,39; 34,88</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,11; 3,35</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,02; 30,16</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-23,17; 9,11</t>
         </is>
       </c>
     </row>
@@ -1818,47 +1818,47 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-58,23%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-1,08%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,06%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>258,84%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>552,93%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>273,97%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-40,5%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,5%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,13%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +1871,47 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>-83,16; -6,35</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>-51,77; 87,95</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>-74,17; 18,76</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D27" s="2" t="inlineStr">
+      <c r="G27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E27" s="2" t="inlineStr">
+      <c r="H27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-70,48; 15,74</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,31; 129,99</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,91; 41,29</t>
         </is>
       </c>
     </row>
@@ -1928,47 +1928,47 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,04</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,59</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,77</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,01</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,03</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-8,93</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,69</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,74</t>
         </is>
       </c>
     </row>
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,73; 1,45</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-11,25; 18,82</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,01; 6,63</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,36; 14,56</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,35; 19,33</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,05; 26,23</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,41; 2,2</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,21; 14,32</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-9,65; 11,86</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2034,47 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-46,36%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,6%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-23,43%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,65%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,32%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,64%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-30,91%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,02%</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-76,53; 12,5</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-32,85; 93,24</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,04; 32,94</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-61,15; 77,28</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,68; 100,96</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,74; 143,31</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-59,76; 11,67</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-25,88; 66,19</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,8; 53,12</t>
         </is>
       </c>
     </row>
@@ -2144,47 +2144,47 @@
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,68</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,09</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>37,55</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-14,13</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-32,76</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,8</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-4,67</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-9,57</t>
         </is>
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>27,2</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,32; 17,73</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,76; 20,31</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>23,0; 52,23</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,62; 9,66</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-51,06; -6,25</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,12; 31,26</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-19,04; 8,59</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,18; 4,13</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,98; 38,74</t>
         </is>
       </c>
     </row>
@@ -2250,47 +2250,47 @@
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,04%</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>113,43%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,64%</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-66,41%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-12,23%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,06%</t>
         </is>
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>71,2%</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-43,47; 68,4</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-42,41; 73,36</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,69; 199,47</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,07; 27,16</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-91,76; -10,11</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,98; 83,91</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-45,45; 25,46</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-53,79; 13,26</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>32,86; 119,62</t>
         </is>
       </c>
     </row>
@@ -2360,47 +2360,47 @@
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-7,77</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,25</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,91</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,76</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,88</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,18</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,54</t>
         </is>
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,66</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,03; -1,01</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,54; 14,48</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,13; 11,49</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-5,18; 13,04</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,29; 20,53</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,58; 20,0</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,02; 2,76</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,87; 14,49</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,98; 12,87</t>
         </is>
       </c>
     </row>
@@ -2466,47 +2466,47 @@
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,58%</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>22,95%</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>11,5%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>12,71%</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>34,95%</t>
         </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>38,6%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-10,15%</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>27,25%</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,46%</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,26; -4,26</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,78; 51,56</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,79; 41,65</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-14,61; 51,28</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,88; 78,05</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,6; 75,35</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,26; 10,46</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,59; 49,2</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,79; 44,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6903-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6903-Provincia-trans_camb.xlsx
@@ -632,7 +632,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-10,38</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-21,26</t>
+          <t>-20,99</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>20,38</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-12,04</t>
+          <t>-11,29</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>2,9</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-17,42</t>
+          <t>-17,15</t>
         </is>
       </c>
     </row>
@@ -685,7 +685,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,92; 13,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,12 +695,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-42,85; 3,33</t>
+          <t>-42,62; 4,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-8,39; 45,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -710,12 +710,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,59; 16,32</t>
+          <t>-36,11; 17,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,66; 21,97</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-33,68; 1,53</t>
+          <t>-33,94; 1,62</t>
         </is>
       </c>
     </row>
@@ -738,7 +738,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,89%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -748,12 +748,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-53,04%</t>
+          <t>-52,37%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>52,47%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -763,12 +763,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-31,01%</t>
+          <t>-29,07%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,32%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-44,01%</t>
+          <t>-43,32%</t>
         </is>
       </c>
     </row>
@@ -791,7 +791,7 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-64,41; 53,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -801,12 +801,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-87,39; 24,71</t>
+          <t>-86,32; 28,34</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,1; 195,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -816,12 +816,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-76,06; 71,69</t>
+          <t>-75,51; 77,44</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-29,76; 75,96</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-72,85; 7,5</t>
+          <t>-73,34; 8,89</t>
         </is>
       </c>
     </row>
@@ -858,7 +858,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>9,77</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>15,09</t>
+          <t>14,94</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>12,39</t>
+          <t>12,65</t>
         </is>
       </c>
     </row>
@@ -911,7 +911,7 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 31,22</t>
+          <t>-10,02; 32,39</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -926,7 +926,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 36,82</t>
+          <t>-5,98; 36,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -941,7 +941,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 26,77</t>
+          <t>-1,57; 27,27</t>
         </is>
       </c>
     </row>
@@ -964,7 +964,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>32,18%</t>
+          <t>34,97%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -979,7 +979,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>50,65%</t>
+          <t>50,15%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>41,02%</t>
+          <t>41,91%</t>
         </is>
       </c>
     </row>
@@ -1017,7 +1017,7 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-29,62; 145,87</t>
+          <t>-28,56; 151,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1032,7 +1032,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 220,02</t>
+          <t>-16,11; 219,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1047,7 +1047,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-3,75; 117,61</t>
+          <t>-2,57; 119,13</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-23,81</t>
+          <t>-24,02</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1089,7 +1089,7 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>13,67</t>
+          <t>13,6</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-7,88</t>
+          <t>-8,18</t>
         </is>
       </c>
     </row>
@@ -1127,7 +1127,7 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-42,61; -5,19</t>
+          <t>-42,93; -5,62</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,22; 28,48</t>
+          <t>-8,33; 28,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -1157,7 +1157,7 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-23,2; 3,67</t>
+          <t>-23,54; 3,35</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-69,13%</t>
+          <t>-69,73%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
@@ -1195,7 +1195,7 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>100,44%</t>
+          <t>99,94%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-29,53%</t>
+          <t>-30,66%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-89,15; -18,61</t>
+          <t>-89,57; -20,64</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1248,7 +1248,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,23; 653,3</t>
+          <t>-32,61; 649,1</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-62,64; 23,19</t>
+          <t>-63,3; 21,15</t>
         </is>
       </c>
     </row>
@@ -1280,7 +1280,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>8,54</t>
+          <t>7,34</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1290,12 +1290,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>31,29</t>
+          <t>31,02</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>38,62</t>
+          <t>31,37</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1305,12 +1305,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>39,2</t>
+          <t>23,51</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>20,15</t>
+          <t>16,14</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>34,01</t>
+          <t>23,57</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 23,23</t>
+          <t>-9,23; 26,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>7,69; 54,69</t>
+          <t>8,02; 54,93</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>14,67; 55,29</t>
+          <t>4,89; 52,79</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,34; 58,48</t>
+          <t>-13,68; 55,71</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,35; 31,98</t>
+          <t>2,06; 31,92</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1373,7 +1373,7 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>13,97; 49,1</t>
+          <t>-5,99; 44,44</t>
         </is>
       </c>
     </row>
@@ -1386,7 +1386,7 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>43,09%</t>
+          <t>37,05%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1396,12 +1396,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>157,94%</t>
+          <t>156,57%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>286,04%</t>
+          <t>232,36%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1411,12 +1411,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>290,35%</t>
+          <t>174,11%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>111,7%</t>
+          <t>89,47%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>188,5%</t>
+          <t>130,65%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-28,98; 210,11</t>
+          <t>-39,58; 200,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,12 +1449,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,57; 436,04</t>
+          <t>23,15; 436,9</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>34,27; 1451,59</t>
+          <t>1,18; 1166,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1464,12 +1464,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>35,51; 1343,19</t>
+          <t>-35,4; 831,26</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>26,64; 293,43</t>
+          <t>7,78; 304,82</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>59,46; 418,29</t>
+          <t>-19,63; 323,09</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-16,42</t>
+          <t>-16,54</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
@@ -1521,7 +1521,7 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-2,33</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-11,2</t>
+          <t>-11,41</t>
         </is>
       </c>
     </row>
@@ -1559,7 +1559,7 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-41,47; 8,97</t>
+          <t>-41,54; 8,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-49,68; 28,22</t>
+          <t>-50,61; 27,52</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
@@ -1589,7 +1589,7 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-32,48; 9,76</t>
+          <t>-32,9; 9,16</t>
         </is>
       </c>
     </row>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>-51,84%</t>
+          <t>-52,24%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
@@ -1627,7 +1627,7 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-6,77%</t>
+          <t>-8,03%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-36,07%</t>
+          <t>-36,75%</t>
         </is>
       </c>
     </row>
@@ -1665,7 +1665,7 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-89,57; 66,38</t>
+          <t>-89,45; 66,17</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
@@ -1680,7 +1680,7 @@
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-77,96; —</t>
+          <t>-78,23; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
@@ -1695,7 +1695,7 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-72,07; 62,87</t>
+          <t>-72,39; 61,67</t>
         </is>
       </c>
     </row>
@@ -1722,7 +1722,7 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>-16,94</t>
+          <t>-17,09</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>20,12</t>
+          <t>20,5</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
@@ -1752,7 +1752,7 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>-7,07</t>
+          <t>-6,99</t>
         </is>
       </c>
     </row>
@@ -1775,7 +1775,7 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-37,65; 4,81</t>
+          <t>-37,7; 4,7</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
@@ -1790,7 +1790,7 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 34,88</t>
+          <t>-4,13; 35,39</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-23,17; 9,11</t>
+          <t>-23,23; 8,98</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>-40,06%</t>
+          <t>-40,41%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
@@ -1843,7 +1843,7 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>273,97%</t>
+          <t>279,07%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
@@ -1858,7 +1858,7 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>-21,13%</t>
+          <t>-20,87%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-74,17; 18,76</t>
+          <t>-74,26; 17,98</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1911,7 +1911,7 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-53,91; 41,29</t>
+          <t>-53,93; 41,56</t>
         </is>
       </c>
     </row>
@@ -1938,7 +1938,7 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>-6,59</t>
+          <t>-6,62</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
@@ -1953,7 +1953,7 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>9,03</t>
+          <t>8,87</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
@@ -1968,7 +1968,7 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1,74</t>
+          <t>1,44</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-22,01; 6,63</t>
+          <t>-21,97; 6,69</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
@@ -2006,7 +2006,7 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,05; 26,23</t>
+          <t>-7,15; 26,09</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
@@ -2021,7 +2021,7 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,65; 11,86</t>
+          <t>-9,91; 11,75</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>-23,43%</t>
+          <t>-23,52%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
@@ -2059,7 +2059,7 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>29,64%</t>
+          <t>29,12%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
@@ -2074,7 +2074,7 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>4,97%</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2097,7 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-61,04; 32,94</t>
+          <t>-61,33; 33,17</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-16,74; 143,31</t>
+          <t>-17,45; 141,68</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
@@ -2127,7 +2127,7 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-28,8; 53,12</t>
+          <t>-29,62; 50,82</t>
         </is>
       </c>
     </row>
@@ -2154,7 +2154,7 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>37,55</t>
+          <t>37,5</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
@@ -2169,7 +2169,7 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>10,8</t>
+          <t>9,87</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
@@ -2184,7 +2184,7 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>27,2</t>
+          <t>26,82</t>
         </is>
       </c>
     </row>
@@ -2207,7 +2207,7 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>23,0; 52,23</t>
+          <t>22,93; 52,4</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-8,12; 31,26</t>
+          <t>-9,41; 29,47</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
@@ -2237,7 +2237,7 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>13,98; 38,74</t>
+          <t>13,62; 38,19</t>
         </is>
       </c>
     </row>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>113,43%</t>
+          <t>113,28%</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
@@ -2275,7 +2275,7 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>21,89%</t>
+          <t>20,02%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
@@ -2290,7 +2290,7 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>71,2%</t>
+          <t>70,21%</t>
         </is>
       </c>
     </row>
@@ -2313,7 +2313,7 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>58,69; 199,47</t>
+          <t>59,23; 199,19</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
@@ -2328,7 +2328,7 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-13,98; 83,91</t>
+          <t>-15,75; 80,52</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
@@ -2343,7 +2343,7 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>32,86; 119,62</t>
+          <t>30,79; 117,3</t>
         </is>
       </c>
     </row>
@@ -2370,7 +2370,7 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>3,63</t>
+          <t>2,6</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
@@ -2385,7 +2385,7 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>11,88</t>
+          <t>8,32</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>7,66</t>
+          <t>5,37</t>
         </is>
       </c>
     </row>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-3,13; 11,49</t>
+          <t>-3,93; 10,64</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
@@ -2438,7 +2438,7 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>3,58; 20,0</t>
+          <t>-3,83; 16,43</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
@@ -2453,7 +2453,7 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>1,98; 12,87</t>
+          <t>-2,08; 10,77</t>
         </is>
       </c>
     </row>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>8,23%</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
@@ -2491,7 +2491,7 @@
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>38,6%</t>
+          <t>27,02%</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
@@ -2506,7 +2506,7 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>17,13%</t>
         </is>
       </c>
     </row>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-8,79; 41,65</t>
+          <t>-11,42; 37,69</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
@@ -2544,7 +2544,7 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>8,6; 75,35</t>
+          <t>-9,97; 62,28</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
@@ -2559,7 +2559,7 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>5,79; 44,22</t>
+          <t>-6,1; 36,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P6903-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P6903-Provincia-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-30,92; 13,61</t>
+          <t>-30,24; 15,45</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,7; 23,37</t>
+          <t>-20,81; 22,36</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-42,62; 4,19</t>
+          <t>-41,12; 2,87</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-8,39; 45,9</t>
+          <t>-7,14; 45,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-12,68; 36,09</t>
+          <t>-13,42; 33,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-36,11; 17,79</t>
+          <t>-36,65; 18,68</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,66; 21,97</t>
+          <t>-15,0; 19,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 22,0</t>
+          <t>-9,5; 20,76</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-33,94; 1,62</t>
+          <t>-33,31; 1,8</t>
         </is>
       </c>
     </row>
@@ -791,54 +791,54 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-64,41; 53,97</t>
+          <t>-61,18; 60,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-40,18; 92,07</t>
+          <t>-40,04; 86,01</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-86,32; 28,34</t>
+          <t>-86,45; 14,19</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,1; 195,35</t>
+          <t>-12,37; 190,77</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,38; 155,49</t>
+          <t>-26,73; 153,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-75,51; 77,44</t>
+          <t>-72,86; 83,08</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-29,76; 75,96</t>
+          <t>-32,02; 63,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-21,49; 73,66</t>
+          <t>-20,13; 66,77</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-73,34; 8,89</t>
+          <t>-73,78; 8,65</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-14,88; 18,97</t>
+          <t>-15,8; 18,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,09; 25,87</t>
+          <t>-4,81; 25,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,02; 32,39</t>
+          <t>-10,09; 33,13</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-27,51; 14,78</t>
+          <t>-28,94; 14,73</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,33; 53,22</t>
+          <t>8,32; 51,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-5,98; 36,76</t>
+          <t>-5,08; 35,22</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-14,66; 11,99</t>
+          <t>-14,02; 14,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,94; 30,75</t>
+          <t>4,98; 31,19</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 27,27</t>
+          <t>-0,89; 27,83</t>
         </is>
       </c>
     </row>
@@ -1007,54 +1007,54 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-39,72; 92,04</t>
+          <t>-43,76; 85,02</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-18,26; 115,93</t>
+          <t>-12,87; 137,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-28,56; 151,43</t>
+          <t>-31,77; 149,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-71,62; 91,66</t>
+          <t>-72,33; 87,09</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,1; 286,56</t>
+          <t>18,34; 326,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,11; 219,49</t>
+          <t>-15,06; 227,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-40,0; 47,5</t>
+          <t>-39,67; 61,08</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,82; 133,96</t>
+          <t>11,72; 133,31</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 119,13</t>
+          <t>-2,86; 124,76</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-40,05; 3,77</t>
+          <t>-41,62; -0,27</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-36,41; 12,55</t>
+          <t>-35,98; 12,55</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-42,93; -5,62</t>
+          <t>-42,94; -6,49</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-8,56; 41,65</t>
+          <t>-9,12; 40,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,54; 24,62</t>
+          <t>-20,92; 28,77</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-8,33; 28,46</t>
+          <t>-6,25; 29,6</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-22,71; 11,15</t>
+          <t>-23,13; 10,86</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-24,63; 12,01</t>
+          <t>-25,02; 9,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-23,54; 3,35</t>
+          <t>-22,03; 5,23</t>
         </is>
       </c>
     </row>
@@ -1223,22 +1223,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-88,79; 37,77</t>
+          <t>-90,92; 9,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-80,77; 50,0</t>
+          <t>-81,72; 65,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-89,57; -20,64</t>
+          <t>-91,08; -23,07</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-54,87; 1075,44</t>
+          <t>-61,11; 1148,58</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1248,22 +1248,22 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-32,61; 649,1</t>
+          <t>-26,12; 765,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-66,52; 76,52</t>
+          <t>-66,51; 69,85</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-71,61; 89,36</t>
+          <t>-74,22; 49,64</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-63,3; 21,15</t>
+          <t>-60,03; 30,85</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 26,11</t>
+          <t>-11,9; 25,44</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9,02; 51,68</t>
+          <t>6,76; 50,19</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>8,02; 54,93</t>
+          <t>9,04; 52,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,89; 52,79</t>
+          <t>5,76; 54,09</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>11,27; 56,23</t>
+          <t>9,49; 57,27</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,68; 55,71</t>
+          <t>-15,57; 56,18</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,06; 31,92</t>
+          <t>1,65; 30,28</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>15,06; 46,29</t>
+          <t>15,13; 46,45</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-5,99; 44,44</t>
+          <t>-5,3; 45,91</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-39,58; 200,03</t>
+          <t>-50,68; 218,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>25,22; 416,08</t>
+          <t>19,58; 404,54</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>23,15; 436,9</t>
+          <t>32,46; 450,78</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,18; 1166,98</t>
+          <t>11,76; 1204,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,51; 1292,64</t>
+          <t>22,59; 1309,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-35,4; 831,26</t>
+          <t>-38,11; 792,86</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>7,78; 304,82</t>
+          <t>3,58; 248,73</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>62,65; 432,36</t>
+          <t>52,21; 382,48</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-19,63; 323,09</t>
+          <t>-15,0; 335,71</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-45,81; -2,95</t>
+          <t>-47,86; -4,15</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-13,1; 56,13</t>
+          <t>-18,23; 51,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-41,54; 8,7</t>
+          <t>-39,43; 7,43</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-46,81; 46,37</t>
+          <t>-50,05; 43,03</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-26,35; 71,17</t>
+          <t>-27,73; 69,96</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-50,61; 27,52</t>
+          <t>-43,8; 31,59</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-35,05; 9,66</t>
+          <t>-34,31; 8,61</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 50,2</t>
+          <t>-6,14; 50,27</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-32,9; 9,16</t>
+          <t>-31,86; 8,99</t>
         </is>
       </c>
     </row>
@@ -1655,54 +1655,54 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 142,19</t>
+          <t>-100,0; 55,8</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-29,91; 324,85</t>
+          <t>-41,24; 279,11</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-89,45; 66,17</t>
+          <t>-88,09; 83,61</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-83,07; —</t>
+          <t>-81,81; —</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-65,77; —</t>
+          <t>-67,59; —</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-78,23; —</t>
+          <t>-78,61; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-83,32; 66,55</t>
+          <t>-82,32; 52,14</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-21,16; 236,29</t>
+          <t>-15,12; 279,49</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-72,39; 61,67</t>
+          <t>-70,82; 58,34</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-44,09; -3,39</t>
+          <t>-45,22; -4,98</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-25,29; 27,22</t>
+          <t>-25,41; 26,85</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-37,7; 4,7</t>
+          <t>-37,08; 3,22</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-7,68; 47,0</t>
+          <t>-2,79; 47,14</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,48; 80,4</t>
+          <t>4,89; 80,78</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,13; 35,39</t>
+          <t>-3,14; 35,22</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-29,11; 3,35</t>
+          <t>-30,64; 3,55</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 30,16</t>
+          <t>-11,57; 31,94</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-23,23; 8,98</t>
+          <t>-23,52; 8,1</t>
         </is>
       </c>
     </row>
@@ -1871,17 +1871,17 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-83,16; -6,35</t>
+          <t>-84,62; -10,04</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-51,77; 87,95</t>
+          <t>-49,86; 85,44</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>-74,26; 17,98</t>
+          <t>-70,35; 15,57</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
@@ -1901,24 +1901,24 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-70,48; 15,74</t>
+          <t>-71,12; 16,04</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-32,31; 129,99</t>
+          <t>-28,63; 137,34</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-53,93; 41,56</t>
+          <t>-55,13; 32,92</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
@@ -1981,47 +1981,47 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-26,73; 1,45</t>
+          <t>-25,68; 1,9</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-11,25; 18,82</t>
+          <t>-11,39; 18,27</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>-21,97; 6,69</t>
+          <t>-19,22; 8,39</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-24,36; 14,56</t>
+          <t>-24,5; 14,59</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-19,35; 19,33</t>
+          <t>-19,44; 20,06</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>-7,15; 26,09</t>
+          <t>-9,38; 24,76</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-20,41; 2,2</t>
+          <t>-19,42; 4,36</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 14,32</t>
+          <t>-9,32; 14,33</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>-9,91; 11,75</t>
+          <t>-8,75; 11,75</t>
         </is>
       </c>
     </row>
@@ -2087,47 +2087,47 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-76,53; 12,5</t>
+          <t>-77,1; 15,4</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-32,85; 93,24</t>
+          <t>-32,38; 90,41</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>-61,33; 33,17</t>
+          <t>-56,16; 41,72</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-61,15; 77,28</t>
+          <t>-58,96; 75,83</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-45,68; 100,96</t>
+          <t>-47,89; 104,53</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>-17,45; 141,68</t>
+          <t>-22,92; 125,95</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-59,76; 11,67</t>
+          <t>-57,32; 20,97</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-25,88; 66,19</t>
+          <t>-26,59; 64,54</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>-29,62; 50,82</t>
+          <t>-25,73; 49,58</t>
         </is>
       </c>
     </row>
@@ -2197,47 +2197,47 @@
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>-16,32; 17,73</t>
+          <t>-15,68; 16,79</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>-15,76; 20,31</t>
+          <t>-14,39; 20,23</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>22,93; 52,4</t>
+          <t>19,19; 51,56</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>-36,62; 9,66</t>
+          <t>-37,77; 10,39</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>-51,06; -6,25</t>
+          <t>-52,58; -6,61</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>-9,41; 29,47</t>
+          <t>-9,66; 30,06</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>-19,04; 8,59</t>
+          <t>-17,71; 11,17</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
         <is>
-          <t>-22,18; 4,13</t>
+          <t>-22,97; 5,12</t>
         </is>
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>13,62; 38,19</t>
+          <t>14,09; 38,2</t>
         </is>
       </c>
     </row>
@@ -2303,47 +2303,47 @@
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>-43,47; 68,4</t>
+          <t>-44,39; 61,85</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>-42,41; 73,36</t>
+          <t>-39,04; 73,63</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>59,23; 199,19</t>
+          <t>50,87; 190,27</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>-65,07; 27,16</t>
+          <t>-67,24; 27,46</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>-91,76; -10,11</t>
+          <t>-92,45; -2,93</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>-15,75; 80,52</t>
+          <t>-16,23; 90,15</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>-45,45; 25,46</t>
+          <t>-41,85; 34,46</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
         <is>
-          <t>-53,79; 13,26</t>
+          <t>-54,97; 15,07</t>
         </is>
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>30,79; 117,3</t>
+          <t>30,73; 117,85</t>
         </is>
       </c>
     </row>
@@ -2413,47 +2413,47 @@
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>-14,03; -1,01</t>
+          <t>-14,13; -1,34</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>-0,54; 14,48</t>
+          <t>0,2; 14,16</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>-3,93; 10,64</t>
+          <t>-4,73; 10,38</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>-5,18; 13,04</t>
+          <t>-5,4; 12,8</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>2,29; 20,53</t>
+          <t>2,1; 19,88</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>-3,83; 16,43</t>
+          <t>-4,25; 17,25</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>-8,02; 2,76</t>
+          <t>-8,19; 1,88</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>2,87; 14,49</t>
+          <t>3,17; 14,26</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 10,77</t>
+          <t>-1,51; 10,88</t>
         </is>
       </c>
     </row>
@@ -2519,47 +2519,47 @@
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>-41,26; -4,26</t>
+          <t>-40,79; -4,91</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 51,56</t>
+          <t>0,38; 50,01</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>-11,42; 37,69</t>
+          <t>-14,09; 35,78</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>-14,61; 51,28</t>
+          <t>-15,47; 48,02</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>5,88; 78,05</t>
+          <t>6,26; 78,9</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>-9,97; 62,28</t>
+          <t>-10,7; 64,66</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>-24,26; 10,46</t>
+          <t>-24,12; 6,57</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
         <is>
-          <t>7,59; 49,2</t>
+          <t>9,51; 50,71</t>
         </is>
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>-6,1; 36,57</t>
+          <t>-4,53; 36,91</t>
         </is>
       </c>
     </row>
